--- a/Code/Infectious_Disease_Panel.xlsx
+++ b/Code/Infectious_Disease_Panel.xlsx
@@ -19,7 +19,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>Year</t>
   </si>
@@ -1403,31 +1565,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
@@ -3114,31 +3276,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
@@ -4851,31 +5013,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2">
@@ -6588,31 +6750,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -8325,31 +8487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
@@ -10074,31 +10236,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
